--- a/data/timeline-faelle-ems_graphs.xlsx
+++ b/data/timeline-faelle-ems_graphs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clemens\PycharmProjects\SirModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D86BEC-0E97-42A8-8889-77286D125EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA75AFC-548E-4EA3-94E3-EE03A69E9FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline-faelle-ems" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
-    <sheet name="timeline-faelle-ems_period" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="4" r:id="rId3"/>
+    <sheet name="timeline-faelle-ems_period" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9759" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9773" uniqueCount="507">
   <si>
     <t>Datum</t>
   </si>
@@ -1514,6 +1515,48 @@
   <si>
     <t>na</t>
   </si>
+  <si>
+    <t>infected_over_time</t>
+  </si>
+  <si>
+    <t>Model A</t>
+  </si>
+  <si>
+    <t>Model B</t>
+  </si>
+  <si>
+    <t>Official data</t>
+  </si>
+  <si>
+    <t>Maximum number of infections.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>Percent of population</t>
+  </si>
+  <si>
+    <t>Percent error</t>
+  </si>
+  <si>
+    <t>91.6</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
 </sst>
 </file>
 
@@ -2039,7 +2082,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2048,6 +2091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2093,7 +2137,104 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4508,17 +4649,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>daily_infections</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4543,470 +4673,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$153</c:f>
-              <c:strCache>
-                <c:ptCount val="152"/>
-                <c:pt idx="0">
-                  <c:v>2021-09-01T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021-09-02T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021-09-03T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2021-09-04T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021-09-05T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021-09-06T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2021-09-07T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2021-09-08T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021-09-09T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021-09-10T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2021-09-11T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021-09-12T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2021-09-13T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2021-09-14T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2021-09-15T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2021-09-16T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2021-09-17T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021-09-18T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2021-09-19T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021-09-20T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2021-09-21T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2021-09-22T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2021-09-23T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2021-09-24T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021-09-25T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021-09-26T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021-09-27T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021-09-28T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021-09-29T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2021-09-30T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2021-10-01T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021-10-02T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2021-10-03T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2021-10-04T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2021-10-05T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2021-10-06T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2021-10-07T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2021-10-08T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2021-10-09T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2021-10-10T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2021-10-11T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2021-10-12T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2021-10-13T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2021-10-14T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2021-10-15T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2021-10-16T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2021-10-17T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2021-10-18T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2021-10-19T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2021-10-20T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2021-10-21T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2021-10-22T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2021-10-23T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2021-10-24T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2021-10-25T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2021-10-26T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2021-10-27T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2021-10-28T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2021-10-29T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2021-10-30T08:00:00+02:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2021-10-31T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2021-11-01T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2021-11-02T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2021-11-03T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2021-11-04T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2021-11-05T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2021-11-06T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2021-11-07T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2021-11-08T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2021-11-09T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2021-11-10T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2021-11-11T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2021-11-12T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2021-11-13T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2021-11-15T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2021-11-16T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2021-11-17T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2021-11-18T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2021-11-19T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2021-11-20T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2021-11-21T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2021-11-22T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2021-11-23T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2021-11-24T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2021-11-25T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2021-11-26T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2021-11-27T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2021-11-28T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2021-11-29T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2021-11-30T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2021-12-01T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2021-12-02T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2021-12-03T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2021-12-04T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2021-12-05T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2021-12-06T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2021-12-07T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2021-12-08T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2021-12-09T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2021-12-10T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2021-12-11T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2021-12-12T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2021-12-13T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2021-12-14T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2021-12-15T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2021-12-16T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2021-12-17T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2021-12-18T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2021-12-19T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2021-12-20T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2021-12-21T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2021-12-22T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2021-12-23T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2021-12-24T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2021-12-25T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2021-12-26T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2021-12-27T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2021-12-28T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2021-12-29T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2021-12-30T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2021-12-31T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2022-01-01T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2022-01-02T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2022-01-03T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2022-01-04T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2022-01-05T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2022-01-06T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2022-01-07T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2022-01-08T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2022-01-09T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2022-01-10T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2022-01-11T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2022-01-12T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2022-01-13T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2022-01-14T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2022-01-15T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2022-01-16T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2022-01-17T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2022-01-18T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2022-01-19T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2022-01-20T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2022-01-21T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2022-01-22T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2022-01-23T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2022-01-24T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2022-01-25T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2022-01-26T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2022-01-27T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2022-01-28T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2022-01-29T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2022-01-30T08:00:00+01:00</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2022-01-31T08:00:00+01:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$2:$C$153</c:f>
@@ -5474,6 +5140,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-51F2-4658-86F1-C5A8A903D783}"/>
             </c:ext>
@@ -5497,23 +5178,6 @@
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>total_infections</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
@@ -5538,476 +5202,6 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$A$2:$A$153</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="152"/>
-                      <c:pt idx="0">
-                        <c:v>2021-09-01T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2021-09-02T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2021-09-03T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2021-09-04T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2021-09-05T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2021-09-06T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2021-09-07T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2021-09-08T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2021-09-09T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2021-09-10T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2021-09-11T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2021-09-12T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2021-09-13T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2021-09-14T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2021-09-15T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2021-09-16T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2021-09-17T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2021-09-18T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2021-09-19T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2021-09-20T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2021-09-21T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2021-09-22T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2021-09-23T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2021-09-24T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2021-09-25T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2021-09-26T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2021-09-27T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2021-09-28T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2021-09-29T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2021-09-30T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2021-10-01T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2021-10-02T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2021-10-03T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>2021-10-04T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2021-10-05T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>2021-10-06T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>2021-10-07T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>2021-10-08T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>2021-10-09T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>2021-10-10T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>2021-10-11T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>2021-10-12T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>2021-10-13T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>2021-10-14T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>2021-10-15T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>2021-10-16T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>2021-10-17T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>2021-10-18T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>2021-10-19T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>2021-10-20T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>2021-10-21T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>2021-10-22T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>2021-10-23T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>2021-10-24T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>2021-10-25T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>2021-10-26T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>2021-10-27T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>2021-10-28T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>2021-10-29T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>2021-10-30T08:00:00+02:00</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>2021-10-31T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>2021-11-01T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>2021-11-02T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>2021-11-03T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>2021-11-04T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>2021-11-05T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>2021-11-06T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>2021-11-07T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>2021-11-08T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>2021-11-09T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>2021-11-10T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>2021-11-11T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>2021-11-12T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>2021-11-13T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>2021-11-15T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>2021-11-16T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>2021-11-17T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>2021-11-18T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>2021-11-19T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>2021-11-20T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>2021-11-21T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>2021-11-22T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>2021-11-23T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>2021-11-24T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>2021-11-25T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>2021-11-26T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>2021-11-27T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>2021-11-28T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>2021-11-29T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>2021-11-30T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>2021-12-01T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>2021-12-02T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>2021-12-03T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>2021-12-04T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>2021-12-05T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>2021-12-06T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>2021-12-07T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>2021-12-08T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>2021-12-09T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>2021-12-10T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>2021-12-11T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>2021-12-12T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>2021-12-13T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>2021-12-14T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>2021-12-15T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>2021-12-16T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>2021-12-17T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>2021-12-18T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>2021-12-19T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>2021-12-20T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>2021-12-21T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>2021-12-22T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>2021-12-23T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>2021-12-24T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>2021-12-25T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>2021-12-26T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>2021-12-27T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>2021-12-28T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>2021-12-29T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>2021-12-30T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>2021-12-31T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>2022-01-01T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>2022-01-02T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>2022-01-03T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>2022-01-04T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>2022-01-05T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>2022-01-06T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>2022-01-07T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>2022-01-08T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>2022-01-09T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>2022-01-10T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>2022-01-11T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>2022-01-12T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>2022-01-13T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>2022-01-14T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>2022-01-15T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>2022-01-16T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>2022-01-17T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>2022-01-18T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>2022-01-19T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>2022-01-20T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>2022-01-21T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>2022-01-22T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>2022-01-23T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>2022-01-24T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>2022-01-25T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>2022-01-26T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>2022-01-27T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>2022-01-28T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>2022-01-29T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>2022-01-30T08:00:00+01:00</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>2022-01-31T08:00:00+01:00</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -6481,6 +5675,21 @@
                 </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
+                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredSeriesTitle>
+                      <c15:tx>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref> </c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                        </c:strRef>
+                      </c15:tx>
+                    </c15:filteredSeriesTitle>
+                  </c:ext>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-51F2-4658-86F1-C5A8A903D783}"/>
                   </c:ext>
@@ -6680,6 +5889,737 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>infected_over_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="152"/>
+                <c:pt idx="0">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2457</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3358</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3512</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3299</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3377</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3737</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5684</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5516</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5262</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3648</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4569</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7529</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8835</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8934</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7340</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7084</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7441</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10418</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9615</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9936</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14442</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20170</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10487</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11596</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15694</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11843</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13016</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15497</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11145</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11009</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12654</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12740</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10603</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10665</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8779</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6862</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7814</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9986</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7981</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4339</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6986</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4665</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5008</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3796</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3421</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2273</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1791</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2343</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3346</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6119</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9653</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7835</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7467</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6863</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9612</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9758</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10472</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16584</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14995</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>15546</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15701</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13515</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14853</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>15609</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27963</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>23033</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>25724</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>25358</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>20321</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>22151</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>22424</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>33636</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>34592</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35553</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29455</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>23719</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>26316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C24-4F8E-942D-85B38D3143CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1599718912"/>
+        <c:axId val="1599713920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1599718912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599713920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1599713920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599718912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6721,6 +6661,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7766,20 +7746,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171903</xdr:colOff>
+      <xdr:colOff>679173</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95701</xdr:rowOff>
+      <xdr:rowOff>13467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3007178</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:colOff>2328004</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7807,15 +8290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>188232</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133804</xdr:rowOff>
+      <xdr:colOff>669216</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2952749</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>2277718</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7837,6 +8320,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2335696</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A895F2-DBA6-DB5E-6FE3-354FA6D58846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7866,13 +8385,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B509417-D71F-487D-95C3-4B9661B38CD5}" name="Tabelle3" displayName="Tabelle3" ref="A1:D153" totalsRowShown="0">
+  <autoFilter ref="A1:D153" xr:uid="{9B509417-D71F-487D-95C3-4B9661B38CD5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4E7B1D3D-E4FC-4C7A-BCF8-8D898CC963E1}" name="date_long" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{29EA1DD0-CAAC-4A80-9B21-DC83D450B10D}" name="total_infections" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{28A3B508-B753-4BDC-A97D-9710D4CCE6E9}" name="daily_infections" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8D83CE29-99C3-4C9C-A5AB-A9EF677041FF}" name="infected_over_time" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> ROUND( C2 * (1 - 0.1), 0 )</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:D154" totalsRowShown="0">
   <autoFilter ref="A1:D154" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="date_short" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="date_long" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="total_infections" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="daily_infections" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="date_short" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="date_long" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="total_infections" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="daily_infections" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -75016,21 +75550,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="10" max="10" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>488</v>
       </c>
@@ -75040,8 +75574,11 @@
       <c r="C1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
@@ -75051,8 +75588,12 @@
       <c r="C2" s="3">
         <v>2034</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f t="shared" ref="D2:D33" si="0" xml:space="preserve"> ROUND( C2 * (1 - 0.1), 0 )</f>
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>199</v>
       </c>
@@ -75062,8 +75603,12 @@
       <c r="C3" s="6">
         <v>1382</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -75073,8 +75618,12 @@
       <c r="C4" s="3">
         <v>1820</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
@@ -75084,8 +75633,12 @@
       <c r="C5" s="6">
         <v>1787</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>202</v>
       </c>
@@ -75095,8 +75648,12 @@
       <c r="C6" s="3">
         <v>1756</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>203</v>
       </c>
@@ -75106,8 +75663,12 @@
       <c r="C7" s="6">
         <v>1372</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>204</v>
       </c>
@@ -75117,8 +75678,12 @@
       <c r="C8" s="3">
         <v>1202</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>205</v>
       </c>
@@ -75128,8 +75693,12 @@
       <c r="C9" s="6">
         <v>2559</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>206</v>
       </c>
@@ -75139,8 +75708,12 @@
       <c r="C10" s="3">
         <v>2313</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>207</v>
       </c>
@@ -75150,8 +75723,12 @@
       <c r="C11" s="6">
         <v>2492</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -75161,8 +75738,12 @@
       <c r="C12" s="3">
         <v>2362</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>209</v>
       </c>
@@ -75172,8 +75753,12 @@
       <c r="C13" s="6">
         <v>1737</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>210</v>
       </c>
@@ -75183,8 +75768,12 @@
       <c r="C14" s="3">
         <v>1310</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>211</v>
       </c>
@@ -75194,8 +75783,12 @@
       <c r="C15" s="6">
         <v>2009</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>212</v>
       </c>
@@ -75205,8 +75798,12 @@
       <c r="C16" s="3">
         <v>2447</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>213</v>
       </c>
@@ -75216,8 +75813,12 @@
       <c r="C17" s="6">
         <v>2336</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>214</v>
       </c>
@@ -75227,8 +75828,12 @@
       <c r="C18" s="3">
         <v>2363</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>215</v>
       </c>
@@ -75238,8 +75843,12 @@
       <c r="C19" s="6">
         <v>1914</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>216</v>
       </c>
@@ -75249,8 +75858,12 @@
       <c r="C20" s="3">
         <v>1653</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>217</v>
       </c>
@@ -75260,8 +75873,12 @@
       <c r="C21" s="6">
         <v>1271</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>218</v>
       </c>
@@ -75271,8 +75888,12 @@
       <c r="C22" s="3">
         <v>1447</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>219</v>
       </c>
@@ -75282,8 +75903,12 @@
       <c r="C23" s="6">
         <v>1969</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>220</v>
       </c>
@@ -75293,8 +75918,12 @@
       <c r="C24" s="3">
         <v>1723</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>221</v>
       </c>
@@ -75304,8 +75933,12 @@
       <c r="C25" s="6">
         <v>1745</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>222</v>
       </c>
@@ -75315,8 +75948,12 @@
       <c r="C26" s="3">
         <v>1932</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>223</v>
       </c>
@@ -75326,8 +75963,12 @@
       <c r="C27" s="6">
         <v>1614</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>224</v>
       </c>
@@ -75337,8 +75978,12 @@
       <c r="C28" s="3">
         <v>1208</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>225</v>
       </c>
@@ -75348,8 +75993,12 @@
       <c r="C29" s="6">
         <v>1748</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>226</v>
       </c>
@@ -75359,8 +76008,12 @@
       <c r="C30" s="3">
         <v>2116</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>227</v>
       </c>
@@ -75370,8 +76023,12 @@
       <c r="C31" s="6">
         <v>2128</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>228</v>
       </c>
@@ -75381,8 +76038,12 @@
       <c r="C32" s="3">
         <v>1839</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>229</v>
       </c>
@@ -75392,8 +76053,12 @@
       <c r="C33" s="6">
         <v>1744</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>230</v>
       </c>
@@ -75403,8 +76068,12 @@
       <c r="C34" s="3">
         <v>1713</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" ref="D34:D65" si="1" xml:space="preserve"> ROUND( C34 * (1 - 0.1), 0 )</f>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>231</v>
       </c>
@@ -75414,8 +76083,12 @@
       <c r="C35" s="6">
         <v>1265</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>232</v>
       </c>
@@ -75425,8 +76098,12 @@
       <c r="C36" s="3">
         <v>1358</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>233</v>
       </c>
@@ -75436,8 +76113,12 @@
       <c r="C37" s="6">
         <v>2812</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>234</v>
       </c>
@@ -75447,8 +76128,12 @@
       <c r="C38" s="3">
         <v>2015</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>235</v>
       </c>
@@ -75458,8 +76143,12 @@
       <c r="C39" s="6">
         <v>1852</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>236</v>
       </c>
@@ -75469,8 +76158,12 @@
       <c r="C40" s="3">
         <v>1728</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>237</v>
       </c>
@@ -75480,8 +76173,12 @@
       <c r="C41" s="6">
         <v>1665</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>238</v>
       </c>
@@ -75491,8 +76188,12 @@
       <c r="C42" s="3">
         <v>1288</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>239</v>
       </c>
@@ -75502,8 +76203,12 @@
       <c r="C43" s="6">
         <v>1734</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>240</v>
       </c>
@@ -75513,8 +76218,12 @@
       <c r="C44" s="3">
         <v>2438</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -75524,8 +76233,12 @@
       <c r="C45" s="6">
         <v>2084</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>242</v>
       </c>
@@ -75535,8 +76248,12 @@
       <c r="C46" s="3">
         <v>2730</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>243</v>
       </c>
@@ -75546,8 +76263,12 @@
       <c r="C47" s="6">
         <v>2431</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>244</v>
       </c>
@@ -75557,8 +76278,12 @@
       <c r="C48" s="3">
         <v>2103</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>245</v>
       </c>
@@ -75568,8 +76293,12 @@
       <c r="C49" s="6">
         <v>1684</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>246</v>
       </c>
@@ -75579,8 +76308,12 @@
       <c r="C50" s="3">
         <v>3050</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>247</v>
       </c>
@@ -75590,8 +76323,12 @@
       <c r="C51" s="6">
         <v>3731</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>248</v>
       </c>
@@ -75601,8 +76338,12 @@
       <c r="C52" s="3">
         <v>3902</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>249</v>
       </c>
@@ -75612,8 +76353,12 @@
       <c r="C53" s="6">
         <v>3666</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>250</v>
       </c>
@@ -75623,8 +76368,12 @@
       <c r="C54" s="3">
         <v>3752</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>251</v>
       </c>
@@ -75634,8 +76383,12 @@
       <c r="C55" s="6">
         <v>2661</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>252</v>
       </c>
@@ -75645,8 +76398,12 @@
       <c r="C56" s="3">
         <v>3507</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>253</v>
       </c>
@@ -75656,8 +76413,12 @@
       <c r="C57" s="6">
         <v>3609</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>254</v>
       </c>
@@ -75667,8 +76428,12 @@
       <c r="C58" s="3">
         <v>4152</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>255</v>
       </c>
@@ -75678,8 +76443,12 @@
       <c r="C59" s="6">
         <v>4822</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>256</v>
       </c>
@@ -75689,8 +76458,12 @@
       <c r="C60" s="3">
         <v>6316</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>257</v>
       </c>
@@ -75700,8 +76473,12 @@
       <c r="C61" s="6">
         <v>6129</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>258</v>
       </c>
@@ -75711,8 +76488,12 @@
       <c r="C62" s="3">
         <v>5847</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>259</v>
       </c>
@@ -75722,8 +76503,12 @@
       <c r="C63" s="6">
         <v>4053</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>260</v>
       </c>
@@ -75733,8 +76518,12 @@
       <c r="C64" s="3">
         <v>5077</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>261</v>
       </c>
@@ -75744,8 +76533,12 @@
       <c r="C65" s="6">
         <v>7733</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>262</v>
       </c>
@@ -75755,8 +76548,12 @@
       <c r="C66" s="3">
         <v>8366</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" ref="D66:D97" si="2" xml:space="preserve"> ROUND( C66 * (1 - 0.1), 0 )</f>
+        <v>7529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>263</v>
       </c>
@@ -75766,8 +76563,12 @@
       <c r="C67" s="6">
         <v>9817</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>264</v>
       </c>
@@ -75777,8 +76578,12 @@
       <c r="C68" s="3">
         <v>9927</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>8934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>265</v>
       </c>
@@ -75788,8 +76593,12 @@
       <c r="C69" s="6">
         <v>8156</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>266</v>
       </c>
@@ -75799,8 +76608,12 @@
       <c r="C70" s="3">
         <v>7871</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>267</v>
       </c>
@@ -75810,8 +76623,12 @@
       <c r="C71" s="6">
         <v>8268</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>268</v>
       </c>
@@ -75821,8 +76638,12 @@
       <c r="C72" s="3">
         <v>11576</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>10418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>269</v>
       </c>
@@ -75832,8 +76653,12 @@
       <c r="C73" s="6">
         <v>10683</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>9615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>270</v>
       </c>
@@ -75843,8 +76668,12 @@
       <c r="C74" s="3">
         <v>11040</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>9936</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>271</v>
       </c>
@@ -75854,8 +76683,12 @@
       <c r="C75" s="6">
         <v>16047</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>14442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>272</v>
       </c>
@@ -75865,8 +76698,12 @@
       <c r="C76" s="3">
         <v>22411</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>20170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>273</v>
       </c>
@@ -75876,8 +76713,12 @@
       <c r="C77" s="6">
         <v>11652</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>10487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>274</v>
       </c>
@@ -75887,8 +76728,12 @@
       <c r="C78" s="3">
         <v>12884</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>11596</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>275</v>
       </c>
@@ -75898,8 +76743,12 @@
       <c r="C79" s="6">
         <v>17438</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>15694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>276</v>
       </c>
@@ -75909,8 +76758,12 @@
       <c r="C80" s="3">
         <v>13159</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>11843</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>277</v>
       </c>
@@ -75920,8 +76773,12 @@
       <c r="C81" s="6">
         <v>14462</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>13016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>278</v>
       </c>
@@ -75931,8 +76788,12 @@
       <c r="C82" s="3">
         <v>17219</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>15497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>279</v>
       </c>
@@ -75942,8 +76803,12 @@
       <c r="C83" s="6">
         <v>12383</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>11145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>280</v>
       </c>
@@ -75953,8 +76818,12 @@
       <c r="C84" s="3">
         <v>12232</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>281</v>
       </c>
@@ -75964,8 +76833,12 @@
       <c r="C85" s="6">
         <v>14060</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>12654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>282</v>
       </c>
@@ -75975,8 +76848,12 @@
       <c r="C86" s="3">
         <v>14156</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>12740</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>283</v>
       </c>
@@ -75986,8 +76863,12 @@
       <c r="C87" s="6">
         <v>11781</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>10603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>284</v>
       </c>
@@ -75997,8 +76878,12 @@
       <c r="C88" s="3">
         <v>11850</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>10665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>285</v>
       </c>
@@ -76008,8 +76893,12 @@
       <c r="C89" s="6">
         <v>9754</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>286</v>
       </c>
@@ -76019,8 +76908,12 @@
       <c r="C90" s="3">
         <v>7624</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>287</v>
       </c>
@@ -76030,8 +76923,12 @@
       <c r="C91" s="6">
         <v>8682</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>7814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>288</v>
       </c>
@@ -76041,8 +76938,12 @@
       <c r="C92" s="3">
         <v>11095</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>289</v>
       </c>
@@ -76052,8 +76953,12 @@
       <c r="C93" s="6">
         <v>8868</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>290</v>
       </c>
@@ -76063,8 +76968,12 @@
       <c r="C94" s="3">
         <v>4821</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>291</v>
       </c>
@@ -76074,8 +76983,12 @@
       <c r="C95" s="6">
         <v>7762</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>6986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>292</v>
       </c>
@@ -76085,8 +76998,12 @@
       <c r="C96" s="3">
         <v>5183</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>293</v>
       </c>
@@ -76096,8 +77013,12 @@
       <c r="C97" s="6">
         <v>2827</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>294</v>
       </c>
@@ -76107,8 +77028,12 @@
       <c r="C98" s="3">
         <v>6579</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f t="shared" ref="D98:D129" si="3" xml:space="preserve"> ROUND( C98 * (1 - 0.1), 0 )</f>
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>295</v>
       </c>
@@ -76118,8 +77043,12 @@
       <c r="C99" s="6">
         <v>5564</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>296</v>
       </c>
@@ -76129,8 +77058,12 @@
       <c r="C100" s="3">
         <v>3441</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>297</v>
       </c>
@@ -76140,8 +77073,12 @@
       <c r="C101" s="6">
         <v>4218</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>298</v>
       </c>
@@ -76151,8 +77088,12 @@
       <c r="C102" s="3">
         <v>3717</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>299</v>
       </c>
@@ -76162,8 +77103,12 @@
       <c r="C103" s="6">
         <v>3472</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>300</v>
       </c>
@@ -76173,8 +77118,12 @@
       <c r="C104" s="3">
         <v>2884</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>301</v>
       </c>
@@ -76184,8 +77133,12 @@
       <c r="C105" s="6">
         <v>3801</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>302</v>
       </c>
@@ -76195,8 +77148,12 @@
       <c r="C106" s="3">
         <v>3144</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>303</v>
       </c>
@@ -76206,8 +77163,12 @@
       <c r="C107" s="6">
         <v>2486</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>304</v>
       </c>
@@ -76217,8 +77178,12 @@
       <c r="C108" s="3">
         <v>2532</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>305</v>
       </c>
@@ -76228,8 +77193,12 @@
       <c r="C109" s="6">
         <v>2234</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>306</v>
       </c>
@@ -76239,8 +77208,12 @@
       <c r="C110" s="3">
         <v>2143</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>307</v>
       </c>
@@ -76250,8 +77223,12 @@
       <c r="C111" s="6">
         <v>1728</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>308</v>
       </c>
@@ -76261,8 +77238,12 @@
       <c r="C112" s="3">
         <v>2525</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>309</v>
       </c>
@@ -76272,8 +77253,12 @@
       <c r="C113" s="6">
         <v>2464</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>310</v>
       </c>
@@ -76283,8 +77268,12 @@
       <c r="C114" s="3">
         <v>1990</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>311</v>
       </c>
@@ -76294,8 +77283,12 @@
       <c r="C115" s="6">
         <v>2272</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>312</v>
       </c>
@@ -76305,8 +77298,12 @@
       <c r="C116" s="3">
         <v>2092</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>313</v>
       </c>
@@ -76316,8 +77313,12 @@
       <c r="C117" s="6">
         <v>1593</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>314</v>
       </c>
@@ -76327,8 +77328,12 @@
       <c r="C118" s="3">
         <v>2078</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <f t="shared" si="3"/>
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>315</v>
       </c>
@@ -76338,8 +77343,12 @@
       <c r="C119" s="6">
         <v>2603</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f t="shared" si="3"/>
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>316</v>
       </c>
@@ -76349,8 +77358,12 @@
       <c r="C120" s="3">
         <v>3179</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f t="shared" si="3"/>
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>317</v>
       </c>
@@ -76360,8 +77373,12 @@
       <c r="C121" s="6">
         <v>3223</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f t="shared" si="3"/>
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>318</v>
       </c>
@@ -76371,8 +77388,12 @@
       <c r="C122" s="3">
         <v>3718</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f t="shared" si="3"/>
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>319</v>
       </c>
@@ -76382,8 +77403,12 @@
       <c r="C123" s="6">
         <v>3352</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f t="shared" si="3"/>
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>320</v>
       </c>
@@ -76393,8 +77418,12 @@
       <c r="C124" s="3">
         <v>3497</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <f t="shared" si="3"/>
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>321</v>
       </c>
@@ -76404,8 +77433,12 @@
       <c r="C125" s="6">
         <v>3789</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <f t="shared" si="3"/>
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>322</v>
       </c>
@@ -76415,8 +77448,12 @@
       <c r="C126" s="3">
         <v>6799</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <f t="shared" si="3"/>
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>323</v>
       </c>
@@ -76426,8 +77463,12 @@
       <c r="C127" s="6">
         <v>10725</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <f t="shared" si="3"/>
+        <v>9653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>324</v>
       </c>
@@ -76437,8 +77478,12 @@
       <c r="C128" s="3">
         <v>8706</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f t="shared" si="3"/>
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>325</v>
       </c>
@@ -76448,8 +77493,12 @@
       <c r="C129" s="6">
         <v>8297</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <f t="shared" si="3"/>
+        <v>7467</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -76459,8 +77508,12 @@
       <c r="C130" s="3">
         <v>7625</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <f t="shared" ref="D130:D161" si="4" xml:space="preserve"> ROUND( C130 * (1 - 0.1), 0 )</f>
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>327</v>
       </c>
@@ -76470,8 +77523,12 @@
       <c r="C131" s="6">
         <v>10680</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <f t="shared" si="4"/>
+        <v>9612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>328</v>
       </c>
@@ -76481,8 +77538,12 @@
       <c r="C132" s="3">
         <v>10842</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <f t="shared" si="4"/>
+        <v>9758</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>329</v>
       </c>
@@ -76492,8 +77553,12 @@
       <c r="C133" s="6">
         <v>11636</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <f t="shared" si="4"/>
+        <v>10472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>330</v>
       </c>
@@ -76503,8 +77568,12 @@
       <c r="C134" s="3">
         <v>18427</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <f t="shared" si="4"/>
+        <v>16584</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>331</v>
       </c>
@@ -76514,8 +77583,12 @@
       <c r="C135" s="6">
         <v>16661</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <f t="shared" si="4"/>
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>332</v>
       </c>
@@ -76525,8 +77598,12 @@
       <c r="C136" s="3">
         <v>17273</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <f t="shared" si="4"/>
+        <v>15546</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>333</v>
       </c>
@@ -76536,8 +77613,12 @@
       <c r="C137" s="6">
         <v>17446</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <f t="shared" si="4"/>
+        <v>15701</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>334</v>
       </c>
@@ -76547,8 +77628,12 @@
       <c r="C138" s="3">
         <v>15017</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <f t="shared" si="4"/>
+        <v>13515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>335</v>
       </c>
@@ -76558,8 +77643,12 @@
       <c r="C139" s="6">
         <v>16503</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <f t="shared" si="4"/>
+        <v>14853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>336</v>
       </c>
@@ -76569,8 +77658,12 @@
       <c r="C140" s="3">
         <v>17343</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <f t="shared" si="4"/>
+        <v>15609</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>337</v>
       </c>
@@ -76580,8 +77673,12 @@
       <c r="C141" s="6">
         <v>31070</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <f t="shared" si="4"/>
+        <v>27963</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>338</v>
       </c>
@@ -76591,8 +77688,12 @@
       <c r="C142" s="3">
         <v>25592</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <f t="shared" si="4"/>
+        <v>23033</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>339</v>
       </c>
@@ -76602,8 +77703,12 @@
       <c r="C143" s="6">
         <v>28582</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <f t="shared" si="4"/>
+        <v>25724</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>340</v>
       </c>
@@ -76613,8 +77718,12 @@
       <c r="C144" s="3">
         <v>28175</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <f t="shared" si="4"/>
+        <v>25358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>341</v>
       </c>
@@ -76624,8 +77733,12 @@
       <c r="C145" s="6">
         <v>22579</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <f t="shared" si="4"/>
+        <v>20321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>342</v>
       </c>
@@ -76635,8 +77748,12 @@
       <c r="C146" s="3">
         <v>24612</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <f t="shared" si="4"/>
+        <v>22151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>343</v>
       </c>
@@ -76646,8 +77763,12 @@
       <c r="C147" s="6">
         <v>24915</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <f t="shared" si="4"/>
+        <v>22424</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>344</v>
       </c>
@@ -76657,8 +77778,12 @@
       <c r="C148" s="3">
         <v>37373</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <f t="shared" si="4"/>
+        <v>33636</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>345</v>
       </c>
@@ -76668,8 +77793,12 @@
       <c r="C149" s="6">
         <v>38436</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <f t="shared" si="4"/>
+        <v>34592</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>346</v>
       </c>
@@ -76679,8 +77808,12 @@
       <c r="C150" s="3">
         <v>39503</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <f t="shared" si="4"/>
+        <v>35553</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>347</v>
       </c>
@@ -76690,8 +77823,12 @@
       <c r="C151" s="6">
         <v>32728</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <f t="shared" si="4"/>
+        <v>29455</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>348</v>
       </c>
@@ -76701,8 +77838,12 @@
       <c r="C152" s="3">
         <v>26354</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <f t="shared" si="4"/>
+        <v>23719</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>349</v>
       </c>
@@ -76712,14 +77853,113 @@
       <c r="C153" s="6">
         <v>29240</v>
       </c>
+      <c r="D153">
+        <f t="shared" si="4"/>
+        <v>26316</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CF37AD-8FC2-447F-B43B-866ADF617231}">
+  <dimension ref="A3:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="A3:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="8">
+        <v>99000</v>
+      </c>
+      <c r="C6" s="8">
+        <v>864000</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1173519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D154"/>
   <sheetViews>
